--- a/out/results_2024-03-04.xlsx
+++ b/out/results_2024-03-04.xlsx
@@ -1,34 +1,325 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="132" yWindow="624" windowWidth="22716" windowHeight="8148"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="96">
+  <si>
+    <t>5-3-5</t>
+  </si>
+  <si>
+    <t>commander</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>5-3-7</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>8-4-10</t>
+  </si>
+  <si>
+    <t>25.281</t>
+  </si>
+  <si>
+    <t>6-5-5</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>2.609</t>
+  </si>
+  <si>
+    <t>8-4-9</t>
+  </si>
+  <si>
+    <t>80.234</t>
+  </si>
+  <si>
+    <t>6-7-4</t>
+  </si>
+  <si>
+    <t>45.788</t>
+  </si>
+  <si>
+    <t>unsat</t>
+  </si>
+  <si>
+    <t>41.543</t>
+  </si>
+  <si>
+    <t>3-2-2</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>5-3-2</t>
+  </si>
+  <si>
+    <t>4-3-3</t>
+  </si>
+  <si>
+    <t>7-4-2</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>9-5-2</t>
+  </si>
+  <si>
+    <t>5-4-4</t>
+  </si>
+  <si>
+    <t>11-6-2</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>1.562</t>
+  </si>
+  <si>
+    <t>binomial</t>
+  </si>
+  <si>
+    <t>54.438</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>7-6-3</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>13-7-2</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>4.234</t>
+  </si>
+  <si>
+    <t>7-7-3</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>5-8-3</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>3-6-6</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>15-8-2</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>82.830</t>
+  </si>
+  <si>
+    <t>3-8-5</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>5-7-5</t>
+  </si>
+  <si>
+    <t>17-9-2</t>
+  </si>
+  <si>
+    <t>1.029</t>
+  </si>
+  <si>
+    <t>4-7-6</t>
+  </si>
+  <si>
+    <t>3-9-5</t>
+  </si>
+  <si>
+    <t>10-9-3</t>
+  </si>
+  <si>
+    <t>6-9-4</t>
+  </si>
+  <si>
+    <t>499.849</t>
+  </si>
+  <si>
+    <t>8-10-3</t>
+  </si>
+  <si>
+    <t>1.770</t>
+  </si>
+  <si>
+    <t>19-10-2</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>3-9-6</t>
+  </si>
+  <si>
+    <t>5-10-4</t>
+  </si>
+  <si>
+    <t>4-8-7</t>
+  </si>
+  <si>
+    <t>5-10-5</t>
+  </si>
+  <si>
+    <t>4-9-7</t>
+  </si>
+  <si>
+    <t>5-3-1</t>
+  </si>
+  <si>
+    <t>5-3-3</t>
+  </si>
+  <si>
+    <t>5-3-4</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>5-3-6</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>8-4-1</t>
+  </si>
+  <si>
+    <t>8-4-2</t>
+  </si>
+  <si>
+    <t>8-4-3</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>8-4-4</t>
+  </si>
+  <si>
+    <t>2.309</t>
+  </si>
+  <si>
+    <t>8-4-5</t>
+  </si>
+  <si>
+    <t>478.056</t>
+  </si>
+  <si>
+    <t>8-4-6</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>8-4-7</t>
+  </si>
+  <si>
+    <t>8-4-8</t>
+  </si>
+  <si>
+    <t>344.906</t>
+  </si>
+  <si>
+    <t>184.297</t>
+  </si>
+  <si>
+    <t>9-4-6</t>
+  </si>
+  <si>
+    <t>9-4-7</t>
+  </si>
+  <si>
+    <t>9-4-8</t>
+  </si>
+  <si>
+    <t>9-4-9</t>
+  </si>
+  <si>
+    <t>9-4-10</t>
+  </si>
+  <si>
+    <t>106.031</t>
+  </si>
+  <si>
+    <t>28.734</t>
+  </si>
+  <si>
+    <t>110.203</t>
+  </si>
+  <si>
+    <t>28.094</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +338,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,172 +637,1991 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>5-3-5</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>commander</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0.047</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F1" t="n">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1">
         <v>3735</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>52250</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5-3-7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>commander</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>7329</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>173586</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8-4-10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>commander</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.281</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>41560</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2060674</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6-5-5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.609</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>12000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>173094</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8-4-9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>80.234</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>33696</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1321506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>14756</v>
+      </c>
+      <c r="G6">
+        <v>240004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>14784</v>
+      </c>
+      <c r="G7">
+        <v>242413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>167</v>
+      </c>
+      <c r="G8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>599</v>
+      </c>
+      <c r="G9">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1079</v>
+      </c>
+      <c r="G10">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1455</v>
+      </c>
+      <c r="G11">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>2879</v>
+      </c>
+      <c r="G12">
+        <v>18935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4159</v>
+      </c>
+      <c r="G13">
+        <v>37335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>5015</v>
+      </c>
+      <c r="G14">
+        <v>39654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>167</v>
+      </c>
+      <c r="G15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>599</v>
+      </c>
+      <c r="G16">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1079</v>
+      </c>
+      <c r="G17">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>1455</v>
+      </c>
+      <c r="G18">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>2879</v>
+      </c>
+      <c r="G19">
+        <v>18935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>167</v>
+      </c>
+      <c r="G20">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>599</v>
+      </c>
+      <c r="G21">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1079</v>
+      </c>
+      <c r="G22">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>1455</v>
+      </c>
+      <c r="G23">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>2879</v>
+      </c>
+      <c r="G24">
+        <v>18935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4159</v>
+      </c>
+      <c r="G25">
+        <v>37335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>5015</v>
+      </c>
+      <c r="G26">
+        <v>39654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>11999</v>
+      </c>
+      <c r="G27">
+        <v>161607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4500</v>
+      </c>
+      <c r="G28">
+        <v>167615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>240</v>
+      </c>
+      <c r="G30">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>432</v>
+      </c>
+      <c r="G31">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>560</v>
+      </c>
+      <c r="G32">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>1080</v>
+      </c>
+      <c r="G33">
+        <v>18395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1600</v>
+      </c>
+      <c r="G34">
+        <v>31912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>1848</v>
+      </c>
+      <c r="G35">
+        <v>35930</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>2646</v>
+      </c>
+      <c r="G36">
+        <v>69534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>2912</v>
+      </c>
+      <c r="G37">
+        <v>74697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4500</v>
+      </c>
+      <c r="G38">
+        <v>152948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>3528</v>
+      </c>
+      <c r="G39">
+        <v>102991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>3240</v>
+      </c>
+      <c r="G40">
+        <v>88240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>4536</v>
+      </c>
+      <c r="G41">
+        <v>191745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>4320</v>
+      </c>
+      <c r="G42">
+        <v>129704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>5376</v>
+      </c>
+      <c r="G43">
+        <v>212997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44">
+        <v>5400</v>
+      </c>
+      <c r="G44">
+        <v>231351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45">
+        <v>7000</v>
+      </c>
+      <c r="G45">
+        <v>352610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>6120</v>
+      </c>
+      <c r="G46">
+        <v>195601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47">
+        <v>8064</v>
+      </c>
+      <c r="G47">
+        <v>406059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48">
+        <v>6750</v>
+      </c>
+      <c r="G48">
+        <v>325038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49">
+        <v>8100</v>
+      </c>
+      <c r="G49">
+        <v>349709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>8640</v>
+      </c>
+      <c r="G50">
+        <v>419054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>7920</v>
+      </c>
+      <c r="G51">
+        <v>327493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>8360</v>
+      </c>
+      <c r="G52">
+        <v>324690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>9720</v>
+      </c>
+      <c r="G53">
+        <v>575680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54">
+        <v>8800</v>
+      </c>
+      <c r="G54">
+        <v>436054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>14112</v>
+      </c>
+      <c r="G55">
+        <v>1061612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <v>13750</v>
+      </c>
+      <c r="G56">
+        <v>914224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57">
+        <v>17640</v>
+      </c>
+      <c r="G57">
+        <v>1498490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>540</v>
+      </c>
+      <c r="G59">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60">
+        <v>960</v>
+      </c>
+      <c r="G60">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>1500</v>
+      </c>
+      <c r="G61">
+        <v>34457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>2160</v>
+      </c>
+      <c r="G62">
+        <v>68382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>160</v>
+      </c>
+      <c r="G63">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64">
+        <v>640</v>
+      </c>
+      <c r="G64">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>1440</v>
+      </c>
+      <c r="G65">
+        <v>33546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>2560</v>
+      </c>
+      <c r="G66">
+        <v>66779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>4000</v>
+      </c>
+      <c r="G67">
+        <v>141135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68">
+        <v>5760</v>
+      </c>
+      <c r="G68">
+        <v>283779</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>2940</v>
+      </c>
+      <c r="G69">
+        <v>131464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70">
+        <v>7840</v>
+      </c>
+      <c r="G70">
+        <v>499147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71">
+        <v>10240</v>
+      </c>
+      <c r="G71">
+        <v>809925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>12960</v>
+      </c>
+      <c r="G72">
+        <v>1262070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>16000</v>
+      </c>
+      <c r="G73">
+        <v>1913362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74">
+        <v>6480</v>
+      </c>
+      <c r="G74">
+        <v>360645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75">
+        <v>8820</v>
+      </c>
+      <c r="G75">
+        <v>613956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76">
+        <v>11520</v>
+      </c>
+      <c r="G76">
+        <v>1026559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>49</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>14580</v>
+      </c>
+      <c r="G77">
+        <v>1580439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78">
+        <v>18000</v>
+      </c>
+      <c r="G78">
+        <v>2376888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>41560</v>
+      </c>
+      <c r="G79">
+        <v>2060674</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>33696</v>
+      </c>
+      <c r="G80">
+        <v>1321506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>33660</v>
+      </c>
+      <c r="G81">
+        <v>1320148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>41560</v>
+      </c>
+      <c r="G82">
+        <v>2060674</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>33660</v>
+      </c>
+      <c r="G83">
+        <v>1320148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>41560</v>
+      </c>
+      <c r="G84">
+        <v>2060674</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>16000</v>
+      </c>
+      <c r="G85">
+        <v>1913362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>12960</v>
+      </c>
+      <c r="G86">
+        <v>1262070</v>
       </c>
     </row>
   </sheetData>
